--- a/ESP32/ADC Nonlinearity Fix.xlsx
+++ b/ESP32/ADC Nonlinearity Fix.xlsx
@@ -367,11 +367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68437728"/>
-        <c:axId val="68433920"/>
+        <c:axId val="1861447520"/>
+        <c:axId val="1861448064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68437728"/>
+        <c:axId val="1861447520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,8 +398,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -422,12 +423,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68433920"/>
+        <c:crossAx val="1861448064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68433920"/>
+        <c:axId val="1861448064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,7 +484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68437728"/>
+        <c:crossAx val="1861447520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -550,6 +551,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ADC error vs ADC bin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -799,11 +825,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="68435008"/>
-        <c:axId val="68432832"/>
+        <c:axId val="1765290960"/>
+        <c:axId val="1765291504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68435008"/>
+        <c:axId val="1765290960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,12 +886,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68432832"/>
+        <c:crossAx val="1765291504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68432832"/>
+        <c:axId val="1765291504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,7 +948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68435008"/>
+        <c:crossAx val="1765290960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2436,7 +2462,7 @@
   <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="U16" sqref="U16:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2503,7 @@
         <v>203.31160957866021</v>
       </c>
       <c r="E2" s="1">
-        <f>IF(C2&gt;0,(A2-C2)/A2,"")</f>
+        <f t="shared" ref="E2:E19" si="0">IF(C2&gt;0,(A2-C2)/A2,"")</f>
         <v>0.58538673620875192</v>
       </c>
     </row>
@@ -2489,15 +2515,15 @@
         <v>228</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C26" si="0">IF(B3&gt;0,B3*3.299/4095,"")</f>
+        <f t="shared" ref="C3:C19" si="1">IF(B3&gt;0,B3*3.299/4095,"")</f>
         <v>0.1836805860805861</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D19" si="1">(A3-C3)*4095/3.299</f>
+        <f t="shared" ref="D3:D19" si="2">(A3-C3)*4095/3.299</f>
         <v>208.4358896635344</v>
       </c>
       <c r="E3" s="1">
-        <f>IF(C3&gt;0,(A3-C3)/A3,"")</f>
+        <f t="shared" si="0"/>
         <v>0.47758650147728643</v>
       </c>
     </row>
@@ -2509,15 +2535,15 @@
         <v>272</v>
       </c>
       <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.21912771672771672</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="2"/>
+        <v>208.62564413458622</v>
+      </c>
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0.21912771672771672</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>208.62564413458622</v>
-      </c>
-      <c r="E4" s="1">
-        <f>IF(C4&gt;0,(A4-C4)/A4,"")</f>
         <v>0.43407097952552498</v>
       </c>
     </row>
@@ -2529,15 +2555,15 @@
         <v>502</v>
       </c>
       <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.40441953601953601</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>224.27599272506816</v>
+      </c>
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0.40441953601953601</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>224.27599272506816</v>
-      </c>
-      <c r="E5" s="1">
-        <f>IF(C5&gt;0,(A5-C5)/A5,"")</f>
         <v>0.30880270719614417</v>
       </c>
     </row>
@@ -2549,15 +2575,15 @@
         <v>656</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.52848449328449321</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>231.51894513488941</v>
+      </c>
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>0.52848449328449321</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>231.51894513488941</v>
-      </c>
-      <c r="E6" s="1">
-        <f>IF(C6&gt;0,(A6-C6)/A6,"")</f>
         <v>0.26086084855315633</v>
       </c>
     </row>
@@ -2569,15 +2595,15 @@
         <v>828</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.66705054945054942</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>235.78144892391637</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>0.66705054945054942</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>235.78144892391637</v>
-      </c>
-      <c r="E7" s="1">
-        <f>IF(C7&gt;0,(A7-C7)/A7,"")</f>
         <v>0.22164463307987231</v>
       </c>
     </row>
@@ -2589,15 +2615,15 @@
         <v>960</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.77339194139194134</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>239.08153986056385</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>0.77339194139194134</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>239.08153986056385</v>
-      </c>
-      <c r="E8" s="1">
-        <f>IF(C8&gt;0,(A8-C8)/A8,"")</f>
         <v>0.19938722423194477</v>
       </c>
     </row>
@@ -2609,15 +2635,15 @@
         <v>1030</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.82978510378510373</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>236.11094270991219</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0.82978510378510373</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>236.11094270991219</v>
-      </c>
-      <c r="E9" s="1">
-        <f>IF(C9&gt;0,(A9-C9)/A9,"")</f>
         <v>0.18648519236754538</v>
       </c>
     </row>
@@ -2629,15 +2655,15 @@
         <v>1147</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.92404224664224666</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>240.75689602909986</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0.92404224664224666</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>240.75689602909986</v>
-      </c>
-      <c r="E10" s="1">
-        <f>IF(C10&gt;0,(A10-C10)/A10,"")</f>
         <v>0.17348636257401917</v>
       </c>
     </row>
@@ -2649,15 +2675,15 @@
         <v>1296</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1.0440791208791209</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>248.15883601091235</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>1.0440791208791209</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>248.15883601091235</v>
-      </c>
-      <c r="E11" s="1">
-        <f>IF(C11&gt;0,(A11-C11)/A11,"")</f>
         <v>0.16070810218720183</v>
       </c>
     </row>
@@ -2669,15 +2695,15 @@
         <v>1424</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>1.1471980463980465</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>248.0112155198544</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>1.1471980463980465</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>248.0112155198544</v>
-      </c>
-      <c r="E12" s="1">
-        <f>IF(C12&gt;0,(A12-C12)/A12,"")</f>
         <v>0.14833107171637233</v>
       </c>
     </row>
@@ -2689,15 +2715,15 @@
         <v>1588</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>1.2793191697191697</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>252.82600788117625</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>1.2793191697191697</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>252.82600788117625</v>
-      </c>
-      <c r="E13" s="1">
-        <f>IF(C13&gt;0,(A13-C13)/A13,"")</f>
         <v>0.13734378306192205</v>
       </c>
     </row>
@@ -2709,15 +2735,15 @@
         <v>1974</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>1.5902871794871793</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>271.48499545316776</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>1.5902871794871793</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>271.48499545316776</v>
-      </c>
-      <c r="E14" s="1">
-        <f>IF(C14&gt;0,(A14-C14)/A14,"")</f>
         <v>0.12090260945982344</v>
       </c>
     </row>
@@ -2729,15 +2755,15 @@
         <v>1983</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>1.5975377289377288</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>274.89784783267663</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>1.5975377289377288</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>274.89784783267663</v>
-      </c>
-      <c r="E15" s="1">
-        <f>IF(C15&gt;0,(A15-C15)/A15,"")</f>
         <v>0.12174946182642722</v>
       </c>
     </row>
@@ -2749,15 +2775,15 @@
         <v>2013</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>1.621706227106227</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>274.68869354349812</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>1.621706227106227</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="1"/>
-        <v>274.68869354349812</v>
-      </c>
-      <c r="E16" s="1">
-        <f>IF(C16&gt;0,(A16-C16)/A16,"")</f>
         <v>0.12007258431566628</v>
       </c>
       <c r="Q16">
@@ -2767,15 +2793,15 @@
         <v>2815</v>
       </c>
       <c r="S16">
-        <f>IF(R16&gt;0,R16*3.299/4095,"")</f>
+        <f t="shared" ref="S16:S21" si="3">IF(R16&gt;0,R16*3.299/4095,"")</f>
         <v>2.2678107448107445</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" ref="T16" si="2">(Q16-S16)*4096/3.299</f>
+        <f t="shared" ref="T16" si="4">(Q16-S16)*4096/3.299</f>
         <v>285.80029986516865</v>
       </c>
       <c r="U16" s="1">
-        <f>IF(S16&gt;0,(Q16-S16)/Q16,"")</f>
+        <f t="shared" ref="U16:U21" si="5">IF(S16&gt;0,(Q16-S16)/Q16,"")</f>
         <v>9.2149421612992666E-2</v>
       </c>
     </row>
@@ -2787,15 +2813,15 @@
         <v>2064</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1.6627926739926739</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>272.09881782358286</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>1.6627926739926739</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>272.09881782358286</v>
-      </c>
-      <c r="E17" s="1">
-        <f>IF(C17&gt;0,(A17-C17)/A17,"")</f>
         <v>0.11647573114098085</v>
       </c>
       <c r="Q17">
@@ -2805,7 +2831,7 @@
         <v>2910</v>
       </c>
       <c r="S17">
-        <f>IF(R17&gt;0,R17*3.299/4095,"")</f>
+        <f t="shared" si="3"/>
         <v>2.3443443223443223</v>
       </c>
       <c r="T17" s="2">
@@ -2813,7 +2839,7 @@
         <v>275.20510932938924</v>
       </c>
       <c r="U17" s="1">
-        <f>IF(S17&gt;0,(Q17-S17)/Q17,"")</f>
+        <f t="shared" si="5"/>
         <v>8.6381791759811977E-2</v>
       </c>
     </row>
@@ -2825,15 +2851,15 @@
         <v>2367</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
+        <v>1.9068945054945055</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>281.90269778720818</v>
+      </c>
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>1.9068945054945055</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>281.90269778720818</v>
-      </c>
-      <c r="E18" s="1">
-        <f>IF(C18&gt;0,(A18-C18)/A18,"")</f>
         <v>0.10642244353584557</v>
       </c>
       <c r="Q18">
@@ -2843,7 +2869,7 @@
         <v>3375</v>
       </c>
       <c r="S18">
-        <f>IF(R18&gt;0,R18*3.299/4095,"")</f>
+        <f t="shared" si="3"/>
         <v>2.7189560439560441</v>
       </c>
       <c r="T18" s="2">
@@ -2851,7 +2877,7 @@
         <v>158.97788540649998</v>
       </c>
       <c r="U18" s="1">
-        <f>IF(S18&gt;0,(Q18-S18)/Q18,"")</f>
+        <f t="shared" si="5"/>
         <v>4.4975046028786762E-2</v>
       </c>
     </row>
@@ -2863,15 +2889,15 @@
         <v>2691</v>
       </c>
       <c r="C19">
+        <f t="shared" si="1"/>
+        <v>2.1679142857142857</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>289.32585632009682</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>2.1679142857142857</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>289.32585632009682</v>
-      </c>
-      <c r="E19" s="1">
-        <f>IF(C19&gt;0,(A19-C19)/A19,"")</f>
         <v>9.7078598203129585E-2</v>
       </c>
       <c r="Q19">
@@ -2881,7 +2907,7 @@
         <v>3539</v>
       </c>
       <c r="S19">
-        <f>IF(R19&gt;0,R19*3.299/4095,"")</f>
+        <f t="shared" si="3"/>
         <v>2.8510771672771673</v>
       </c>
       <c r="T19" s="2">
@@ -2889,7 +2915,7 @@
         <v>97.989670455508744</v>
       </c>
       <c r="U19" s="1">
-        <f>IF(S19&gt;0,(Q19-S19)/Q19,"")</f>
+        <f t="shared" si="5"/>
         <v>2.6936120383219402E-2</v>
       </c>
     </row>
@@ -2901,7 +2927,7 @@
         <v>3823</v>
       </c>
       <c r="S20">
-        <f>IF(R20&gt;0,R20*3.299/4095,"")</f>
+        <f t="shared" si="3"/>
         <v>3.0798722832722829</v>
       </c>
       <c r="T20" s="2">
@@ -2909,7 +2935,7 @@
         <v>-27.156372319876169</v>
       </c>
       <c r="U20" s="1">
-        <f>IF(S20&gt;0,(Q20-S20)/Q20,"")</f>
+        <f t="shared" si="5"/>
         <v>-7.1524798143502545E-3</v>
       </c>
     </row>
@@ -2921,7 +2947,7 @@
         <v>4095</v>
       </c>
       <c r="S21">
-        <f>IF(R21&gt;0,R21*3.299/4095,"")</f>
+        <f t="shared" si="3"/>
         <v>3.2989999999999999</v>
       </c>
       <c r="T21" s="2">
@@ -2929,7 +2955,7 @@
         <v>-115.4677174901485</v>
       </c>
       <c r="U21" s="1">
-        <f>IF(S21&gt;0,(Q21-S21)/Q21,"")</f>
+        <f t="shared" si="5"/>
         <v>-2.9008109794135987E-2</v>
       </c>
     </row>
@@ -2938,91 +2964,91 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C28" t="str">
-        <f t="shared" ref="C28:C38" si="3">IF(B28&gt;0,B28*3.294/4095,"")</f>
+        <f t="shared" ref="C28:C38" si="6">IF(B28&gt;0,B28*3.294/4095,"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D39" t="str">
-        <f t="shared" ref="D39:D42" si="4">IF(C39&gt;0,(A39-C39)/A39,"")</f>
+        <f t="shared" ref="D39:D42" si="7">IF(C39&gt;0,(A39-C39)/A39,"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
